--- a/draft/Ref-Todesfälle-in-DE-V1.xlsx
+++ b/draft/Ref-Todesfälle-in-DE-V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torben/Hacken/GitHub/COVID-19-Coronavirus-German-Regions/draft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE621C43-F4D4-C24D-A00F-FB6A364FEA5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4240DD-4B25-0D4A-99EB-D9964290B242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Absolutzahl</t>
   </si>
@@ -51,9 +51,6 @@
     <t>https://www.tagesschau.de/inland/grippe-129.html</t>
   </si>
   <si>
-    <t>DE-Ges</t>
-  </si>
-  <si>
     <t>Verkehrstote 2018</t>
   </si>
   <si>
@@ -118,13 +115,64 @@
   </si>
   <si>
     <t>Zeit bis ambulant in Notaufnahme (Tage)</t>
+  </si>
+  <si>
+    <t>Flu 2018/2019</t>
+  </si>
+  <si>
+    <t>US Pop</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov/flu/about/burden/2018-2019.html</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Gun_violence_in_the_United_States</t>
+  </si>
+  <si>
+    <t>Gun Deaths 2017</t>
+  </si>
+  <si>
+    <t>Suizid</t>
+  </si>
+  <si>
+    <t>DE Pop</t>
+  </si>
+  <si>
+    <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Gesundheit/Todesursachen/Tabellen/suizide.html</t>
+  </si>
+  <si>
+    <t>Motor vehicle deaths</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Motor_vehicle_fatality_rate_in_U.S._by_year</t>
+  </si>
+  <si>
+    <t>Rauchen</t>
+  </si>
+  <si>
+    <t>https://www.bundesgesundheitsministerium.de/service/begriffe-von-a-z/r/rauchen.html</t>
+  </si>
+  <si>
+    <t>Alkohol</t>
+  </si>
+  <si>
+    <t>https://www.bundesgesundheitsministerium.de/service/begriffe-von-a-z/a/alkohol.html</t>
+  </si>
+  <si>
+    <t>stark unterschiedliche Zahlen je nach Quelle</t>
+  </si>
+  <si>
+    <t>HIV 2018</t>
+  </si>
+  <si>
+    <t>https://www.rki.de/DE/Content/Service/Presse/Pressemitteilungen/2019/13_2019.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -144,6 +192,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -171,20 +226,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -566,233 +625,364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:H29"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.5"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="11.5" hidden="1"/>
-    <col min="7" max="7" width="18.1640625" style="1" customWidth="1"/>
-    <col min="8" max="1026" width="11.5"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="1" customWidth="1"/>
+    <col min="4" max="1022" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>83019200</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D4" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="B3">
         <v>1000</v>
       </c>
-      <c r="G4" s="1">
-        <f>E4/$B$6*1000000</f>
+      <c r="C3" s="1">
+        <f>B3/$B$2*1000000</f>
         <v>12.045406363829091</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D5" t="s">
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="B4">
         <v>25000</v>
       </c>
-      <c r="G5" s="1">
-        <f>E5/$B$6*1000000</f>
+      <c r="C4" s="1">
+        <f>B4/$B$2*1000000</f>
         <v>301.13515909572726</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>3265</v>
+      </c>
+      <c r="C5" s="1">
+        <f>B5/$B$2*1000000</f>
+        <v>39.328251777901983</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B6">
-        <v>83019200</v>
-      </c>
-      <c r="D6" t="s">
+        <v>9235</v>
+      </c>
+      <c r="C6" s="1">
+        <f>B6/$B$2*1000000</f>
+        <v>111.23932776996165</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>954874</v>
+      </c>
+      <c r="C7" s="1">
+        <f>B7/$B$2*1000000</f>
+        <v>11501.845356254938</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>120000</v>
+      </c>
+      <c r="C8" s="1">
+        <f>B8/$B$2*1000000</f>
+        <v>1445.4487636594909</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>74000</v>
+      </c>
+      <c r="C9" s="1">
+        <f>B9/$B$2*1000000</f>
+        <v>891.36007092335274</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>440</v>
+      </c>
+      <c r="C10" s="1">
+        <f>B10/$B$2*1000000</f>
+        <v>5.2999788000847996</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>328239523</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>34200</v>
+      </c>
+      <c r="C14" s="1">
+        <f>B14/$B$13*1000000</f>
+        <v>104.19220600683117</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>14542</v>
+      </c>
+      <c r="C15" s="1">
+        <f>B15/$B$13*1000000</f>
+        <v>44.303013443021605</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>36560</v>
+      </c>
+      <c r="C16" s="1">
+        <f>B16/$B$13*1000000</f>
+        <v>111.38207753244876</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C20" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3">
+        <f>C32</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3">
+        <f>C33</f>
+        <v>0.03</v>
+      </c>
+      <c r="C23" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="4">
         <v>7</v>
       </c>
-      <c r="E6">
-        <v>3265</v>
-      </c>
-      <c r="G6" s="1">
-        <f>E6/$B$6*1000000</f>
-        <v>39.328251777901983</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>954874</v>
-      </c>
-      <c r="G7" s="1">
-        <f>E7/$B$6*1000000</f>
-        <v>11501.845356254938</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="G14" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="H15" t="s">
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1">
+        <v>450000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1">
+        <v>28000</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="3">
-        <f>G26</f>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="3">
-        <f>G27</f>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="6">
         <v>0.03</v>
       </c>
-      <c r="G17" s="1">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="4">
-        <v>7</v>
-      </c>
-      <c r="H18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21">
-        <v>450000</v>
-      </c>
-      <c r="H21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="1">
-        <v>28000</v>
-      </c>
-      <c r="H22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D27" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="3">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D28" t="s">
+      <c r="C34" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="C35" s="1">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H7" r:id="rId3" location="Demographie_seit_1900" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D7" r:id="rId3" location="Demographie_seit_1900" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D14" r:id="rId4" xr:uid="{56772C09-D6B5-744C-8B16-11A562AECD4C}"/>
+    <hyperlink ref="D15" r:id="rId5" xr:uid="{4B3F04E1-4402-7E4F-A66A-E4A184C6614F}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{24B77718-BAB7-3F4D-B2DE-9901BDDE0B9C}"/>
+    <hyperlink ref="D16" r:id="rId7" xr:uid="{DC57544B-4512-D74F-BC6C-F022CAA5A388}"/>
+    <hyperlink ref="D8" r:id="rId8" xr:uid="{D526156E-137A-4D4F-A690-839987DAC3A0}"/>
+    <hyperlink ref="D9" r:id="rId9" xr:uid="{213760FF-30DD-2C4A-9F41-7B742F8DFDEE}"/>
+    <hyperlink ref="D10" r:id="rId10" xr:uid="{E34386C2-81E2-6C48-A614-95832C18E640}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
